--- a/data/outputs/能源化工元源数据文件/27（2）GREEN CHEMISTRY.xlsx
+++ b/data/outputs/能源化工元源数据文件/27（2）GREEN CHEMISTRY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ59"/>
+  <dimension ref="A1:BR59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -921,6 +926,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1118,6 +1124,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1333,6 +1340,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4042316</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1542,6 +1554,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1624,7 +1637,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Shuttleworth, Peter S./0000-0002-6606-2613; Clark, James/0000-0002-5860-2480; </t>
+          <t>Shuttleworth, Peter S./0000-0002-6606-2613; Clark, James/0000-0002-5860-2480;</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1751,6 +1764,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4134248</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1960,6 +1978,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2169,6 +2188,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>4200376</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2378,6 +2402,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2583,6 +2608,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2784,6 +2810,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>4254838</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2993,6 +3024,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3194,6 +3226,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>35254885</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3403,6 +3440,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>4247009</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3612,6 +3654,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3821,6 +3864,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4030,6 +4074,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4239,6 +4284,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4448,6 +4494,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4653,6 +4700,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4862,6 +4910,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5071,6 +5120,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5153,7 +5203,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Qian, Hu-Jun/0000-0001-8149-8776; </t>
+          <t>Qian, Hu-Jun/0000-0001-8149-8776;</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -5280,6 +5330,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5493,6 +5544,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5702,6 +5754,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5903,6 +5956,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6108,6 +6162,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6317,6 +6372,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>34003378</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6522,6 +6582,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6723,6 +6784,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>43619554</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6924,6 +6990,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7125,6 +7192,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>13171341</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7334,6 +7406,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7547,6 +7620,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7760,6 +7834,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>4387401</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7969,6 +8048,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>4433205</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8178,6 +8262,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8387,6 +8472,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8588,6 +8674,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8789,6 +8876,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>27342853</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8998,6 +9090,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>4445218</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9199,6 +9296,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9281,7 +9379,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Jiang, Hong/0000-0002-4261-7987; </t>
+          <t>Jiang, Hong/0000-0002-4261-7987;</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -9408,6 +9506,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9621,6 +9720,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9834,6 +9934,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10043,6 +10144,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10256,6 +10358,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>4489427</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10465,6 +10572,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>4483783</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10670,6 +10782,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>4505942</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10875,6 +10992,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11084,6 +11202,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11289,6 +11408,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>4448666</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11490,6 +11614,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11699,6 +11824,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11908,6 +12034,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12113,6 +12240,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>4380091</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12326,6 +12458,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12535,6 +12668,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12732,6 +12866,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
